--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -109,10 +109,10 @@
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>hope</t>
@@ -1304,13 +1304,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.7324561403508771</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L21">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="M21">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="N21">
         <v>0.9399999999999999</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1330,25 +1330,25 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1460,25 +1460,25 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.6441717791411042</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L27">
         <v>210</v>
       </c>
       <c r="M27">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="10:17">
